--- a/data/trans_orig/P43A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Clase-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>26848</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18842</v>
+        <v>18571</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36530</v>
+        <v>36705</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1939319842945096</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1361067246028122</v>
+        <v>0.1341497015320892</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2638735960939629</v>
+        <v>0.2651332401166983</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>47936</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37547</v>
+        <v>37025</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59806</v>
+        <v>60262</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3462614183481841</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.271218700426031</v>
+        <v>0.2674459561503407</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.432003785729033</v>
+        <v>0.4352990798480372</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>35407</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25825</v>
+        <v>26503</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47500</v>
+        <v>46745</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2557613253856214</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1865472259237607</v>
+        <v>0.1914416563438729</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3431132790472839</v>
+        <v>0.3376622595277149</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>28248</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20083</v>
+        <v>19567</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39163</v>
+        <v>38752</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.204045271971685</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.145068769473763</v>
+        <v>0.1413389807835461</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2828915190497228</v>
+        <v>0.2799229371813171</v>
       </c>
     </row>
     <row r="8">
@@ -773,19 +773,19 @@
         <v>16071</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9900</v>
+        <v>9775</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24730</v>
+        <v>24051</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1417886392585261</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08734485484055542</v>
+        <v>0.08623675743268235</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2181869979700925</v>
+        <v>0.212188541726807</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>40794</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31276</v>
+        <v>30310</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51751</v>
+        <v>51117</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3599133232004482</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2759326707075382</v>
+        <v>0.2674151399927128</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4565762060530515</v>
+        <v>0.4509898851071934</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>31751</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22689</v>
+        <v>23406</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41952</v>
+        <v>42034</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2801299486420087</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2001756233013228</v>
+        <v>0.2065019232657281</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3701222758464378</v>
+        <v>0.3708463387927103</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>24728</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16666</v>
+        <v>16999</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34628</v>
+        <v>35554</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.218168088899017</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1470378233328683</v>
+        <v>0.1499779918191742</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3055054619329715</v>
+        <v>0.3136788885500382</v>
       </c>
     </row>
     <row r="13">
@@ -922,19 +922,19 @@
         <v>11813</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5964</v>
+        <v>6817</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18992</v>
+        <v>18859</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1724448713668523</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08707121905530966</v>
+        <v>0.0995203686524247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2772537304508286</v>
+        <v>0.2753054594600077</v>
       </c>
     </row>
     <row r="15">
@@ -951,19 +951,19 @@
         <v>21577</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14475</v>
+        <v>14689</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>29144</v>
+        <v>29790</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3149950253535591</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2113126620427435</v>
+        <v>0.2144280333491979</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4254485102055505</v>
+        <v>0.434888672717681</v>
       </c>
     </row>
     <row r="16">
@@ -980,19 +980,19 @@
         <v>21692</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14214</v>
+        <v>14422</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29757</v>
+        <v>29097</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.316669564476286</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.207499679329759</v>
+        <v>0.2105394793156162</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4344085015184984</v>
+        <v>0.4247673449251371</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>13419</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8050</v>
+        <v>7402</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21108</v>
+        <v>20979</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1958905388033025</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1175159695724916</v>
+        <v>0.1080638528445099</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3081477630925094</v>
+        <v>0.3062536221247956</v>
       </c>
     </row>
     <row r="18">
@@ -1071,19 +1071,19 @@
         <v>55187</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43148</v>
+        <v>42288</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70075</v>
+        <v>67854</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2325690063110216</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1818337968229891</v>
+        <v>0.1782119507824796</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2953124284758023</v>
+        <v>0.2859505284035862</v>
       </c>
     </row>
     <row r="20">
@@ -1100,19 +1100,19 @@
         <v>93145</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>78243</v>
+        <v>79284</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>108952</v>
+        <v>108414</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3925346250067352</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3297311259209718</v>
+        <v>0.3341189108731481</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.459145282794524</v>
+        <v>0.4568803448374815</v>
       </c>
     </row>
     <row r="21">
@@ -1129,19 +1129,19 @@
         <v>57669</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>45494</v>
+        <v>44526</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>70951</v>
+        <v>71081</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2430313334059198</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1917225100838638</v>
+        <v>0.1876430486298559</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2990024750477379</v>
+        <v>0.2995514356439395</v>
       </c>
     </row>
     <row r="22">
@@ -1158,19 +1158,19 @@
         <v>31291</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21104</v>
+        <v>21866</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41413</v>
+        <v>44300</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1318650352763233</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08893811947293033</v>
+        <v>0.09214707725543765</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1745225416316291</v>
+        <v>0.186690431994132</v>
       </c>
     </row>
     <row r="23">
@@ -1220,19 +1220,19 @@
         <v>38596</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27932</v>
+        <v>28568</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>51545</v>
+        <v>51255</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1886311411596371</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1365112454706513</v>
+        <v>0.1396192590634279</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2519131439514939</v>
+        <v>0.2504968613202491</v>
       </c>
     </row>
     <row r="25">
@@ -1249,19 +1249,19 @@
         <v>82505</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68639</v>
+        <v>68850</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97085</v>
+        <v>96368</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.40322621101318</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3354599515195873</v>
+        <v>0.3364880376894662</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4744811386198536</v>
+        <v>0.4709763579074304</v>
       </c>
     </row>
     <row r="26">
@@ -1278,19 +1278,19 @@
         <v>45747</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>34792</v>
+        <v>35560</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57652</v>
+        <v>58303</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2235786733866168</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1700360882571634</v>
+        <v>0.1737891510200238</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2817606839238632</v>
+        <v>0.2849434004537326</v>
       </c>
     </row>
     <row r="27">
@@ -1307,19 +1307,19 @@
         <v>37764</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>27332</v>
+        <v>27161</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>50111</v>
+        <v>49800</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1845639744405661</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1335784323723126</v>
+        <v>0.1327424748666549</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2449086029374963</v>
+        <v>0.2433845742499643</v>
       </c>
     </row>
     <row r="28">
@@ -1369,19 +1369,19 @@
         <v>155634</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>136555</v>
+        <v>135504</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>177572</v>
+        <v>177059</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3079998901401595</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2702427998191955</v>
+        <v>0.2681631667810921</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3514148883909222</v>
+        <v>0.3504010968265445</v>
       </c>
     </row>
     <row r="30">
@@ -1398,19 +1398,19 @@
         <v>162363</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>142027</v>
+        <v>139921</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>182577</v>
+        <v>184121</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3213172180861959</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2810720851574336</v>
+        <v>0.2769039389619122</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3613209934321489</v>
+        <v>0.3643765070325797</v>
       </c>
     </row>
     <row r="31">
@@ -1427,19 +1427,19 @@
         <v>103022</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>86896</v>
+        <v>85960</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>121316</v>
+        <v>121063</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2038798664960877</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1719671244467915</v>
+        <v>0.1701148042646854</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2400845711251884</v>
+        <v>0.2395839018094104</v>
       </c>
     </row>
     <row r="32">
@@ -1456,19 +1456,19 @@
         <v>84286</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>68939</v>
+        <v>69457</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>103009</v>
+        <v>101910</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1668030252775569</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1364298428431529</v>
+        <v>0.1374564056931364</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2038558843078724</v>
+        <v>0.2016795530516699</v>
       </c>
     </row>
     <row r="33">
@@ -1518,19 +1518,19 @@
         <v>304148</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>277767</v>
+        <v>275458</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>337615</v>
+        <v>332467</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2399603057706953</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2191468051465074</v>
+        <v>0.2173252149045765</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2663642881641601</v>
+        <v>0.2623026761578416</v>
       </c>
     </row>
     <row r="35">
@@ -1547,19 +1547,19 @@
         <v>448321</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>410377</v>
+        <v>413092</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>480226</v>
+        <v>481067</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3537069799524601</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3237706923746241</v>
+        <v>0.3259122615970425</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3788783258186811</v>
+        <v>0.3795416746159089</v>
       </c>
     </row>
     <row r="36">
@@ -1576,19 +1576,19 @@
         <v>295289</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>265226</v>
+        <v>265097</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>323560</v>
+        <v>323981</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2329704129201242</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2092519939268311</v>
+        <v>0.2091503677878019</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2552754907137014</v>
+        <v>0.2556078925520705</v>
       </c>
     </row>
     <row r="37">
@@ -1605,19 +1605,19 @@
         <v>219736</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>192850</v>
+        <v>195772</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>247941</v>
+        <v>247311</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1733623013567203</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1521502973554974</v>
+        <v>0.1544559626673838</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1956148378890754</v>
+        <v>0.1951181775500997</v>
       </c>
     </row>
     <row r="38">
@@ -1787,19 +1787,19 @@
         <v>25070</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16981</v>
+        <v>15566</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36637</v>
+        <v>36563</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1850590663238679</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1253451440665514</v>
+        <v>0.1149038791661824</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2704402881610942</v>
+        <v>0.2698982251204602</v>
       </c>
     </row>
     <row r="5">
@@ -1816,19 +1816,19 @@
         <v>47794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35240</v>
+        <v>36039</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60720</v>
+        <v>59891</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3528021295423061</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2601321021928268</v>
+        <v>0.2660272195507232</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4482118077760736</v>
+        <v>0.4420949981287646</v>
       </c>
     </row>
     <row r="6">
@@ -1845,19 +1845,19 @@
         <v>40964</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29521</v>
+        <v>30132</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52014</v>
+        <v>52566</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3023837141952913</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2179153629809227</v>
+        <v>0.2224235254618632</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3839523159655135</v>
+        <v>0.3880263196041594</v>
       </c>
     </row>
     <row r="7">
@@ -1874,19 +1874,19 @@
         <v>21642</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13823</v>
+        <v>13908</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31771</v>
+        <v>32007</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1597550899385347</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1020351701168025</v>
+        <v>0.1026656217389529</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2345210840401552</v>
+        <v>0.2362674106376012</v>
       </c>
     </row>
     <row r="8">
@@ -1936,19 +1936,19 @@
         <v>22729</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15041</v>
+        <v>14555</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33367</v>
+        <v>32995</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1765528361047921</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1168323238317309</v>
+        <v>0.1130600242739491</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.259177916281396</v>
+        <v>0.2562953403820256</v>
       </c>
     </row>
     <row r="10">
@@ -1965,19 +1965,19 @@
         <v>44240</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33404</v>
+        <v>33730</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57135</v>
+        <v>56754</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3436420272710298</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2594663952552929</v>
+        <v>0.2620000289223171</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4438050687395051</v>
+        <v>0.4408453517163391</v>
       </c>
     </row>
     <row r="11">
@@ -1994,19 +1994,19 @@
         <v>39744</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29438</v>
+        <v>29232</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51314</v>
+        <v>52479</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3087176446456597</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2286622972689624</v>
+        <v>0.2270607553514002</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3985875809619784</v>
+        <v>0.4076369846160861</v>
       </c>
     </row>
     <row r="12">
@@ -2023,19 +2023,19 @@
         <v>22026</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14386</v>
+        <v>14070</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32538</v>
+        <v>31798</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1710874919785184</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1117476279174384</v>
+        <v>0.109286775331742</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2527431295151191</v>
+        <v>0.2469940667304693</v>
       </c>
     </row>
     <row r="13">
@@ -2085,19 +2085,19 @@
         <v>22171</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14661</v>
+        <v>15009</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32306</v>
+        <v>33355</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1649410957977061</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1090714155700549</v>
+        <v>0.1116570007213936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2403438298787293</v>
+        <v>0.2481459297080342</v>
       </c>
     </row>
     <row r="15">
@@ -2114,19 +2114,19 @@
         <v>45262</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>33987</v>
+        <v>34629</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>57579</v>
+        <v>57753</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3367275266525758</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2528482286902189</v>
+        <v>0.2576254826469981</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4283595160679108</v>
+        <v>0.4296552747335376</v>
       </c>
     </row>
     <row r="16">
@@ -2143,19 +2143,19 @@
         <v>43542</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32973</v>
+        <v>33115</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55813</v>
+        <v>55285</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3239346528971723</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2453008125757954</v>
+        <v>0.2463628635210396</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4152211974332881</v>
+        <v>0.4112967495670448</v>
       </c>
     </row>
     <row r="17">
@@ -2172,19 +2172,19 @@
         <v>23442</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15629</v>
+        <v>14238</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34572</v>
+        <v>34038</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1743967246525458</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1162710073340122</v>
+        <v>0.1059277455216814</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2571982266722999</v>
+        <v>0.2532302271417037</v>
       </c>
     </row>
     <row r="18">
@@ -2234,19 +2234,19 @@
         <v>51106</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37810</v>
+        <v>38959</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66839</v>
+        <v>66085</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1694736045726332</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1253799813755324</v>
+        <v>0.1291930653071726</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.221643370419211</v>
+        <v>0.2191428044222744</v>
       </c>
     </row>
     <row r="20">
@@ -2263,19 +2263,19 @@
         <v>103929</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87210</v>
+        <v>86526</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>121597</v>
+        <v>122562</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3446362761822129</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2891965049293307</v>
+        <v>0.286928112203381</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4032277765922291</v>
+        <v>0.4064280845352046</v>
       </c>
     </row>
     <row r="21">
@@ -2292,19 +2292,19 @@
         <v>92283</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>77616</v>
+        <v>76601</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>109994</v>
+        <v>108854</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3060185969414037</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2573810219165241</v>
+        <v>0.2540150782071661</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3647484990508686</v>
+        <v>0.3609693573036325</v>
       </c>
     </row>
     <row r="22">
@@ -2321,19 +2321,19 @@
         <v>54242</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41171</v>
+        <v>41402</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69299</v>
+        <v>70142</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1798715223037502</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1365257962067495</v>
+        <v>0.1372932048782793</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2298011729317994</v>
+        <v>0.2325987877982687</v>
       </c>
     </row>
     <row r="23">
@@ -2383,19 +2383,19 @@
         <v>89684</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>72687</v>
+        <v>73446</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>107178</v>
+        <v>108902</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2292816260824414</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1858260455879099</v>
+        <v>0.1877670242637997</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2740051830154884</v>
+        <v>0.2784115282528632</v>
       </c>
     </row>
     <row r="25">
@@ -2412,19 +2412,19 @@
         <v>153696</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>134068</v>
+        <v>135428</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>173071</v>
+        <v>175326</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3929304470683784</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3427486494217535</v>
+        <v>0.3462279706961358</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4424630858354608</v>
+        <v>0.4482274760716803</v>
       </c>
     </row>
     <row r="26">
@@ -2441,19 +2441,19 @@
         <v>94902</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>79130</v>
+        <v>77037</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>113526</v>
+        <v>112058</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2426208762505301</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.202297676262649</v>
+        <v>0.1969491022716838</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2902338823809331</v>
+        <v>0.2864808951985463</v>
       </c>
     </row>
     <row r="27">
@@ -2470,19 +2470,19 @@
         <v>52871</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>39441</v>
+        <v>39599</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>69309</v>
+        <v>67754</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1351670505986501</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1008326255668259</v>
+        <v>0.101237031235362</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.177191768626717</v>
+        <v>0.1732155825586697</v>
       </c>
     </row>
     <row r="28">
@@ -2532,19 +2532,19 @@
         <v>131311</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>112700</v>
+        <v>111475</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>152933</v>
+        <v>152299</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2304884657874801</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1978201274072414</v>
+        <v>0.1956713200416514</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2684417630218384</v>
+        <v>0.2673278800544625</v>
       </c>
     </row>
     <row r="30">
@@ -2561,19 +2561,19 @@
         <v>240153</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>217521</v>
+        <v>217374</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>264011</v>
+        <v>267972</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4215380069715051</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3818123766893725</v>
+        <v>0.3815537151026189</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4634153017207727</v>
+        <v>0.4703687914426159</v>
       </c>
     </row>
     <row r="31">
@@ -2590,19 +2590,19 @@
         <v>131023</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>111048</v>
+        <v>111513</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>153584</v>
+        <v>152133</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2299826623255102</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1949204018915719</v>
+        <v>0.1957375566994582</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2695841565051512</v>
+        <v>0.2670371782281111</v>
       </c>
     </row>
     <row r="32">
@@ -2619,19 +2619,19 @@
         <v>67220</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>52600</v>
+        <v>52523</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>85132</v>
+        <v>84696</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1179908649155046</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09232843750091645</v>
+        <v>0.09219366650501758</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1494309708906741</v>
+        <v>0.1486667127529079</v>
       </c>
     </row>
     <row r="33">
@@ -2681,19 +2681,19 @@
         <v>342072</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>308800</v>
+        <v>309745</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>375068</v>
+        <v>375460</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2059374683141178</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1859067689452258</v>
+        <v>0.1864756962206092</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2258020075495947</v>
+        <v>0.2260380957584567</v>
       </c>
     </row>
     <row r="35">
@@ -2710,19 +2710,19 @@
         <v>635074</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>594781</v>
+        <v>592621</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>678297</v>
+        <v>675741</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.382333602381264</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.358075898894106</v>
+        <v>0.356775229709154</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4083547183712415</v>
+        <v>0.4068162999815141</v>
       </c>
     </row>
     <row r="36">
@@ -2739,19 +2739,19 @@
         <v>442458</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>404926</v>
+        <v>405492</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>481571</v>
+        <v>482664</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.266373034062765</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2437775905094473</v>
+        <v>0.2441179299725669</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2899198242677148</v>
+        <v>0.2905777165200268</v>
       </c>
     </row>
     <row r="37">
@@ -2768,19 +2768,19 @@
         <v>241443</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>213696</v>
+        <v>212074</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>273352</v>
+        <v>273761</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1453558952418531</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1286511050593956</v>
+        <v>0.1276750679669887</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1645657084191317</v>
+        <v>0.1648125095590853</v>
       </c>
     </row>
     <row r="38">
@@ -2950,19 +2950,19 @@
         <v>23376</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15266</v>
+        <v>16222</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33997</v>
+        <v>34458</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1374543740447262</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08977008366988266</v>
+        <v>0.09538815301080557</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1999095783390767</v>
+        <v>0.2026206952717292</v>
       </c>
     </row>
     <row r="5">
@@ -2979,19 +2979,19 @@
         <v>72977</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59094</v>
+        <v>60231</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>85388</v>
+        <v>86146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.429124269020893</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3474884460518059</v>
+        <v>0.3541756104819534</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.50209932690554</v>
+        <v>0.5065567185294796</v>
       </c>
     </row>
     <row r="6">
@@ -3008,19 +3008,19 @@
         <v>52844</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40681</v>
+        <v>41241</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67391</v>
+        <v>67841</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3107327101475103</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2392147573045845</v>
+        <v>0.2425048115194756</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3962741140680032</v>
+        <v>0.3989213821999943</v>
       </c>
     </row>
     <row r="7">
@@ -3037,19 +3037,19 @@
         <v>20865</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13274</v>
+        <v>13107</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31689</v>
+        <v>31830</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1226886467868705</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07805507259872972</v>
+        <v>0.07707498817480798</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1863391820374786</v>
+        <v>0.1871664650027068</v>
       </c>
     </row>
     <row r="8">
@@ -3099,19 +3099,19 @@
         <v>17556</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10662</v>
+        <v>10660</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26488</v>
+        <v>27697</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1017011474109582</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06176570771997639</v>
+        <v>0.06175519437555382</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1534471092660895</v>
+        <v>0.160448982433726</v>
       </c>
     </row>
     <row r="10">
@@ -3128,19 +3128,19 @@
         <v>72474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59677</v>
+        <v>58483</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86145</v>
+        <v>86230</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4198424413425177</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3457066255939201</v>
+        <v>0.3387935863683466</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4990389564244386</v>
+        <v>0.4995330376041864</v>
       </c>
     </row>
     <row r="11">
@@ -3157,19 +3157,19 @@
         <v>64122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51835</v>
+        <v>51538</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>78222</v>
+        <v>77854</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3714603770962636</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3002818013622208</v>
+        <v>0.2985621879460382</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4531388682838802</v>
+        <v>0.4510085178520737</v>
       </c>
     </row>
     <row r="12">
@@ -3186,19 +3186,19 @@
         <v>18470</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11180</v>
+        <v>11226</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28292</v>
+        <v>26873</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1069960341502605</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06476373831047276</v>
+        <v>0.06503001176685051</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1638954575913867</v>
+        <v>0.1556725726149729</v>
       </c>
     </row>
     <row r="13">
@@ -3248,19 +3248,19 @@
         <v>17081</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9348</v>
+        <v>10005</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25892</v>
+        <v>26601</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1837261993432073</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1005416522536146</v>
+        <v>0.1076134760052284</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2784972750407063</v>
+        <v>0.2861151699176934</v>
       </c>
     </row>
     <row r="15">
@@ -3277,19 +3277,19 @@
         <v>42329</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>31665</v>
+        <v>31727</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>51877</v>
+        <v>52654</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4552890703408329</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3405838401082788</v>
+        <v>0.3412524616177225</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5579866744273481</v>
+        <v>0.5663463627565051</v>
       </c>
     </row>
     <row r="16">
@@ -3306,19 +3306,19 @@
         <v>23219</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14751</v>
+        <v>14938</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32349</v>
+        <v>33090</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2497469804264027</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1586578943228825</v>
+        <v>0.1606721138339478</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3479414575819412</v>
+        <v>0.3559166370873766</v>
       </c>
     </row>
     <row r="17">
@@ -3335,19 +3335,19 @@
         <v>10342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5281</v>
+        <v>5134</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18030</v>
+        <v>18064</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1112377498895571</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05680143879874316</v>
+        <v>0.05522068528817644</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1939318066180215</v>
+        <v>0.1942910176218789</v>
       </c>
     </row>
     <row r="18">
@@ -3397,19 +3397,19 @@
         <v>72255</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58766</v>
+        <v>57715</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>89953</v>
+        <v>87761</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2132840050192274</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1734655616646774</v>
+        <v>0.1703634474509507</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2655264947869048</v>
+        <v>0.2590551589836285</v>
       </c>
     </row>
     <row r="20">
@@ -3426,19 +3426,19 @@
         <v>114244</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>96742</v>
+        <v>97289</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>131262</v>
+        <v>130959</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.337228472076171</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.285563844292483</v>
+        <v>0.2871796545992632</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3874623137761325</v>
+        <v>0.3865669811466188</v>
       </c>
     </row>
     <row r="21">
@@ -3455,19 +3455,19 @@
         <v>91222</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>74756</v>
+        <v>75707</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>109995</v>
+        <v>109945</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2692710364398201</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2206657113341247</v>
+        <v>0.2234732516681117</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.324685641555842</v>
+        <v>0.3245364170852074</v>
       </c>
     </row>
     <row r="22">
@@ -3484,19 +3484,19 @@
         <v>61053</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46272</v>
+        <v>47167</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77351</v>
+        <v>75955</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1802164864647815</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1365855217916731</v>
+        <v>0.1392289808885357</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.228326821853309</v>
+        <v>0.2242044760972512</v>
       </c>
     </row>
     <row r="23">
@@ -3546,19 +3546,19 @@
         <v>108508</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>91247</v>
+        <v>90708</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>130173</v>
+        <v>128693</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2600812572688663</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2187093991945622</v>
+        <v>0.2174177881327908</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3120103304932108</v>
+        <v>0.30846148498349</v>
       </c>
     </row>
     <row r="25">
@@ -3575,19 +3575,19 @@
         <v>174819</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>152620</v>
+        <v>154475</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>193814</v>
+        <v>197166</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4190209260560319</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3658128344185883</v>
+        <v>0.3702579151754332</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4645511656813904</v>
+        <v>0.4725837249907383</v>
       </c>
     </row>
     <row r="26">
@@ -3604,19 +3604,19 @@
         <v>86332</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>69789</v>
+        <v>69432</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>103253</v>
+        <v>104291</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.206928817786038</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1672774089734916</v>
+        <v>0.1664213205963681</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2474858292300586</v>
+        <v>0.2499732051635187</v>
       </c>
     </row>
     <row r="27">
@@ -3633,19 +3633,19 @@
         <v>47549</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>35678</v>
+        <v>34898</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>62112</v>
+        <v>62090</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1139689988890639</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08551535710104465</v>
+        <v>0.08364648234310859</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.148876533670917</v>
+        <v>0.1488228648890454</v>
       </c>
     </row>
     <row r="28">
@@ -3695,19 +3695,19 @@
         <v>187719</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>166195</v>
+        <v>164208</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>212893</v>
+        <v>212450</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3358810606706359</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2973684766923239</v>
+        <v>0.2938128545190348</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3809236311405235</v>
+        <v>0.3801310275457179</v>
       </c>
     </row>
     <row r="30">
@@ -3724,19 +3724,19 @@
         <v>227055</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>201793</v>
+        <v>203221</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>250971</v>
+        <v>252338</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4062627693577537</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3610636262279717</v>
+        <v>0.3636177327937323</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4490563349005892</v>
+        <v>0.4515015545759262</v>
       </c>
     </row>
     <row r="31">
@@ -3753,19 +3753,19 @@
         <v>93481</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>76531</v>
+        <v>75292</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>113977</v>
+        <v>111650</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1672629255799194</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1369357187569382</v>
+        <v>0.1347180100848426</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2039361497119845</v>
+        <v>0.1997729087518464</v>
       </c>
     </row>
     <row r="32">
@@ -3782,19 +3782,19 @@
         <v>50631</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37158</v>
+        <v>36911</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>67624</v>
+        <v>64933</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09059324439169097</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06648627151967756</v>
+        <v>0.06604303442838799</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1209983147444759</v>
+        <v>0.1161837419737597</v>
       </c>
     </row>
     <row r="33">
@@ -3844,19 +3844,19 @@
         <v>426495</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>389778</v>
+        <v>390224</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>464244</v>
+        <v>469527</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2436387113857595</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2226638508274117</v>
+        <v>0.2229183653401719</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2652028890468456</v>
+        <v>0.2682207777668094</v>
       </c>
     </row>
     <row r="35">
@@ -3873,19 +3873,19 @@
         <v>703898</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>658761</v>
+        <v>661534</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>744751</v>
+        <v>744766</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4021073445310051</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3763222295929279</v>
+        <v>0.377906756925203</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4254451200553529</v>
+        <v>0.425453579242676</v>
       </c>
     </row>
     <row r="36">
@@ -3902,19 +3902,19 @@
         <v>411221</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>376853</v>
+        <v>372942</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>451154</v>
+        <v>446778</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2349129511144349</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.215280352618123</v>
+        <v>0.2130461443866098</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2577254272451874</v>
+        <v>0.2552252682371914</v>
       </c>
     </row>
     <row r="37">
@@ -3931,19 +3931,19 @@
         <v>208909</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>184124</v>
+        <v>184418</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>237119</v>
+        <v>237552</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1193409929688005</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1051821725458869</v>
+        <v>0.1053504719072614</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1354561502489673</v>
+        <v>0.1357033486124135</v>
       </c>
     </row>
     <row r="38">
@@ -4113,19 +4113,19 @@
         <v>39234</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30958</v>
+        <v>31039</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49005</v>
+        <v>48620</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1881211417534024</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1484405000480762</v>
+        <v>0.1488281323237791</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2349726035816894</v>
+        <v>0.2331267836360696</v>
       </c>
     </row>
     <row r="5">
@@ -4142,19 +4142,19 @@
         <v>70817</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59646</v>
+        <v>60143</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81828</v>
+        <v>82405</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3395587934402297</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2859964550488162</v>
+        <v>0.2883790581350963</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3923532570705958</v>
+        <v>0.3951234501417948</v>
       </c>
     </row>
     <row r="6">
@@ -4171,19 +4171,19 @@
         <v>65873</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55922</v>
+        <v>55062</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>77701</v>
+        <v>78078</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.315851866353844</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2681390232479715</v>
+        <v>0.2640133672804072</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3725683685579703</v>
+        <v>0.3743728898109444</v>
       </c>
     </row>
     <row r="7">
@@ -4200,19 +4200,19 @@
         <v>32632</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24519</v>
+        <v>24550</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42436</v>
+        <v>41973</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1564681984525238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1175654998259042</v>
+        <v>0.1177136484035698</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2034737288364303</v>
+        <v>0.2012538508458939</v>
       </c>
     </row>
     <row r="8">
@@ -4262,19 +4262,19 @@
         <v>37440</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>28783</v>
+        <v>28609</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>46336</v>
+        <v>47179</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2054744855990372</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.157966475079597</v>
+        <v>0.1570085577264937</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2543005313998479</v>
+        <v>0.2589244954794985</v>
       </c>
     </row>
     <row r="10">
@@ -4291,19 +4291,19 @@
         <v>55394</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46192</v>
+        <v>45590</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65928</v>
+        <v>66879</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3040129840695666</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2535085830166949</v>
+        <v>0.2502077726046394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3618257110438309</v>
+        <v>0.367040921598595</v>
       </c>
     </row>
     <row r="11">
@@ -4320,19 +4320,19 @@
         <v>56672</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48160</v>
+        <v>47181</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>67776</v>
+        <v>67216</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3110283896869986</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2643081414833548</v>
+        <v>0.2589364763486974</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3719641328367748</v>
+        <v>0.3688935649791013</v>
       </c>
     </row>
     <row r="12">
@@ -4349,19 +4349,19 @@
         <v>32704</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24873</v>
+        <v>25275</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>42946</v>
+        <v>42966</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1794841406443976</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1365070799034209</v>
+        <v>0.1387142897029714</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2356940488105086</v>
+        <v>0.2358025444316417</v>
       </c>
     </row>
     <row r="13">
@@ -4411,19 +4411,19 @@
         <v>30904</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23773</v>
+        <v>24471</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37640</v>
+        <v>38148</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3767918952612908</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2898386425340908</v>
+        <v>0.2983492074432395</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4589168731655155</v>
+        <v>0.4651014038838429</v>
       </c>
     </row>
     <row r="15">
@@ -4440,19 +4440,19 @@
         <v>23593</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18120</v>
+        <v>17729</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30866</v>
+        <v>30053</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2876543398619643</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2209276328299399</v>
+        <v>0.2161577893253477</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3763253231789102</v>
+        <v>0.3664126628096219</v>
       </c>
     </row>
     <row r="16">
@@ -4469,19 +4469,19 @@
         <v>16935</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12015</v>
+        <v>11978</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23170</v>
+        <v>23407</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2064798911168325</v>
+        <v>0.2064798911168324</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1464896627749068</v>
+        <v>0.1460382668095588</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2824884364669266</v>
+        <v>0.2853785972739602</v>
       </c>
     </row>
     <row r="17">
@@ -4498,19 +4498,19 @@
         <v>10587</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6624</v>
+        <v>6272</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16061</v>
+        <v>16224</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1290738737599125</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08076252712291844</v>
+        <v>0.07647055699555803</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1958163654418616</v>
+        <v>0.197803969750871</v>
       </c>
     </row>
     <row r="18">
@@ -4560,19 +4560,19 @@
         <v>76421</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>65956</v>
+        <v>65743</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88595</v>
+        <v>88629</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2545906132682321</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2197262496351262</v>
+        <v>0.2190166658861111</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.29514386917092</v>
+        <v>0.2952601475425961</v>
       </c>
     </row>
     <row r="20">
@@ -4589,19 +4589,19 @@
         <v>105600</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>92423</v>
+        <v>93087</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>118803</v>
+        <v>118818</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3517960651409571</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3078991014028575</v>
+        <v>0.3101112307795934</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3957803409489541</v>
+        <v>0.3958307614642413</v>
       </c>
     </row>
     <row r="21">
@@ -4618,19 +4618,19 @@
         <v>75258</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>64227</v>
+        <v>64173</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>86280</v>
+        <v>88232</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2507142635216995</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2139664961697707</v>
+        <v>0.2137854988932238</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2874336797213055</v>
+        <v>0.2939352449518047</v>
       </c>
     </row>
     <row r="22">
@@ -4647,19 +4647,19 @@
         <v>42895</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33928</v>
+        <v>34677</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52445</v>
+        <v>53522</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1428990580691115</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.113028300887131</v>
+        <v>0.1155222631703114</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1747158301609965</v>
+        <v>0.1783045664841083</v>
       </c>
     </row>
     <row r="23">
@@ -4709,19 +4709,19 @@
         <v>132556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>120057</v>
+        <v>119601</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>147140</v>
+        <v>146049</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3796474033203893</v>
+        <v>0.3796474033203894</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3438515076288153</v>
+        <v>0.3425449439148117</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.421416849694284</v>
+        <v>0.4182928883978139</v>
       </c>
     </row>
     <row r="25">
@@ -4738,19 +4738,19 @@
         <v>105035</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>92124</v>
+        <v>92451</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>118073</v>
+        <v>118833</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3008274336280489</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2638488491903157</v>
+        <v>0.2647855019871617</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3381680550036814</v>
+        <v>0.3403454682765014</v>
       </c>
     </row>
     <row r="26">
@@ -4767,19 +4767,19 @@
         <v>72293</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>61802</v>
+        <v>60679</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>84340</v>
+        <v>84208</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2070507678245944</v>
+        <v>0.2070507678245943</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.177003162101726</v>
+        <v>0.1737879084296065</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2415537613461693</v>
+        <v>0.2411774797989286</v>
       </c>
     </row>
     <row r="27">
@@ -4796,19 +4796,19 @@
         <v>39271</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>31432</v>
+        <v>31198</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>49494</v>
+        <v>50097</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1124743952269675</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09002339532362273</v>
+        <v>0.08935257342920117</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1417548647598419</v>
+        <v>0.143480542636795</v>
       </c>
     </row>
     <row r="28">
@@ -4858,19 +4858,19 @@
         <v>155679</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>142321</v>
+        <v>141691</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>169081</v>
+        <v>169423</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5057892151877945</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4623895449892888</v>
+        <v>0.4603434222433195</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5493294906931135</v>
+        <v>0.5504415949510482</v>
       </c>
     </row>
     <row r="30">
@@ -4887,19 +4887,19 @@
         <v>89354</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>78247</v>
+        <v>77516</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>101686</v>
+        <v>102049</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2903030004111388</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2542175069598873</v>
+        <v>0.2518418473225583</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.330368629797704</v>
+        <v>0.3315491210019371</v>
       </c>
     </row>
     <row r="31">
@@ -4916,19 +4916,19 @@
         <v>47139</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>38521</v>
+        <v>37681</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>58223</v>
+        <v>58039</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1531514740915103</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1251526535778501</v>
+        <v>0.1224228811101987</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1891615338595457</v>
+        <v>0.1885638585536269</v>
       </c>
     </row>
     <row r="32">
@@ -4945,19 +4945,19 @@
         <v>15623</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10009</v>
+        <v>10114</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>22654</v>
+        <v>23041</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.05075631030955629</v>
+        <v>0.0507563103095563</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03251949118103032</v>
+        <v>0.03286102003982157</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07360199237479344</v>
+        <v>0.07485738089456669</v>
       </c>
     </row>
     <row r="33">
@@ -5007,19 +5007,19 @@
         <v>472234</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>444023</v>
+        <v>445599</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>501532</v>
+        <v>498897</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3302547287240467</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.310525425326895</v>
+        <v>0.311627780681181</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3507436566052921</v>
+        <v>0.3489009475449173</v>
       </c>
     </row>
     <row r="35">
@@ -5036,19 +5036,19 @@
         <v>449794</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>419808</v>
+        <v>424077</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>480003</v>
+        <v>476403</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3145609643913967</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2935903970763177</v>
+        <v>0.2965765444706701</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3356878381477436</v>
+        <v>0.3331702900030553</v>
       </c>
     </row>
     <row r="36">
@@ -5065,19 +5065,19 @@
         <v>334170</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>309188</v>
+        <v>308431</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>362190</v>
+        <v>360074</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2337005034249443</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2162288890268489</v>
+        <v>0.2156998341285186</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2532958182328384</v>
+        <v>0.2518157724596554</v>
       </c>
     </row>
     <row r="37">
@@ -5094,19 +5094,19 @@
         <v>173711</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>153366</v>
+        <v>154622</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>192552</v>
+        <v>194981</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1214838034596123</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1072558512908248</v>
+        <v>0.1081341823624001</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1346600214706556</v>
+        <v>0.1363589485937401</v>
       </c>
     </row>
     <row r="38">
